--- a/data/evaluation/evaluation_North_Autumn_Eggplants.xlsx
+++ b/data/evaluation/evaluation_North_Autumn_Eggplants.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3463.367346938776</v>
+        <v>3441.224489795919</v>
       </c>
       <c r="C3" t="n">
-        <v>21645379.39882302</v>
+        <v>21559188.32739445</v>
       </c>
       <c r="D3" t="n">
-        <v>4652.459499965908</v>
+        <v>4643.187302639691</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1360152150439362</v>
+        <v>-0.1314916459837829</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.598641857674</v>
+        <v>3493.962857222143</v>
       </c>
       <c r="C4" t="n">
-        <v>21293096.59637537</v>
+        <v>21503295.01029353</v>
       </c>
       <c r="D4" t="n">
-        <v>4614.444343187527</v>
+        <v>4637.164544233204</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1175263442228218</v>
+        <v>-0.1285581950390806</v>
       </c>
     </row>
     <row r="5">
